--- a/Usinage/Paramètres de coupe.xlsx
+++ b/Usinage/Paramètres de coupe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonepar-my.sharepoint.com/personal/eric_vandenbussche_sonepar_fr/Documents/Documents/Dropbox/copeaux/Usinage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sonepar-my.sharepoint.com/personal/eric_vandenbussche_sonepar_fr/Documents/Documents/GitHub/copeaux/Usinage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="651" documentId="8_{9D1E8451-314B-4EDB-8365-5127D3C65857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C8F955-84CB-491D-9022-D23F546C8DAB}"/>
+  <xr:revisionPtr revIDLastSave="660" documentId="8_{9D1E8451-314B-4EDB-8365-5127D3C65857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF98D9FF-2301-4C2C-8F0E-5122CD41E349}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{38C22092-4187-4136-A0D9-8947535178E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38C22092-4187-4136-A0D9-8947535178E2}"/>
   </bookViews>
   <sheets>
     <sheet name="formules" sheetId="1" r:id="rId1"/>
@@ -3252,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421BD349-1C8E-4CCA-B44F-89E569EF034F}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,7 +3316,7 @@
         <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>106</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="I4" s="9">
         <f>IF($L$2="carbure",VLOOKUP($J$2,'constante de Denis'!$A$24:$B$47,2,0),VLOOKUP($J$2,'constante de Denis'!$A$24:$C$47,3,0))</f>
-        <v>60000</v>
+        <v>9300000</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I10" s="28">
         <f>(I4/(I9^2*I8))^(1/3)</f>
-        <v>113.57003705200864</v>
+        <v>610.06250479281721</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -3497,14 +3497,14 @@
       </c>
       <c r="L10" s="28">
         <f>(I4/(L9^2*L8))^(1/3)</f>
-        <v>286.17856063833273</v>
+        <v>1537.2611830801243</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N10" s="28">
         <f>I10*1.25</f>
-        <v>141.9625463150108</v>
+        <v>762.57813099102145</v>
       </c>
       <c r="O10" t="s">
         <v>134</v>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="I11" s="28">
         <f>I10*IF($N$2="1h",VLOOKUP($K$2,$G$28:$H$35,2,0),VLOOKUP($K$2,G28:I35,3,0))</f>
-        <v>79.499025936406042</v>
+        <v>427.04375335497201</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -3535,14 +3535,14 @@
       </c>
       <c r="L11" s="28">
         <f>L10*IF($N$2="1h",VLOOKUP($K$2,$G$28:$H$35,2,0),VLOOKUP($K$2,G28:I35,3,0))</f>
-        <v>200.32499244683291</v>
+        <v>1076.0828281560869</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="28">
         <f>N10*IF($N$2="1h",VLOOKUP($K$2,$G$28:$H$35,2,0),VLOOKUP($K$2,G28:I35,3,0))</f>
-        <v>99.373782420507553</v>
+        <v>533.80469169371497</v>
       </c>
       <c r="O11" t="s">
         <v>136</v>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="I12" s="28">
         <f>1000*I11/PI()/H2</f>
-        <v>632.63314743849082</v>
+        <v>3398.3062131479978</v>
       </c>
       <c r="J12" t="s">
         <v>129</v>
@@ -3563,15 +3563,15 @@
         <v>0</v>
       </c>
       <c r="L12" s="28">
-        <f>1000*L11/PI()/(H2-2*I8)</f>
-        <v>1732.756128954351</v>
+        <f>1000*L11/PI()/(I2-2*I8)</f>
+        <v>11494.221562238106</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>129</v>
       </c>
       <c r="N12" s="28">
         <f>1000*N11/PI()/(H2-2*I8)</f>
-        <v>859.55590684577567</v>
+        <v>4617.2638765597794</v>
       </c>
       <c r="O12" t="s">
         <v>0</v>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="I13" s="33">
         <f>I9*I12</f>
-        <v>101.22130359015856</v>
+        <v>543.72899410367972</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>16</v>
@@ -3604,7 +3604,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="33">
         <f>N12*L9</f>
-        <v>68.764472547662066</v>
+        <v>369.38111012478242</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>16</v>
@@ -3878,7 +3878,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4209,8 +4209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B60002-B18E-4FF5-998D-0ECADF987872}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
